--- a/CuaHangTrangSuc/productsInfo/products.xlsx
+++ b/CuaHangTrangSuc/productsInfo/products.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767E5DC4-516D-4CA7-B552-1E1D7549AFB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="211">
   <si>
     <t>ID</t>
   </si>
@@ -1327,12 +1328,272 @@
   </si>
   <si>
     <t>https://www.pnj.com.vn/bong-tai-vang-trang-y-18k-pnj-0000w000918.html</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-fossil-nu-es4650-day-da-28mm.html</t>
+  </si>
+  <si>
+    <t>WFO00000258</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Fossil Nữ ES4650 Dây Da 28mm</t>
+  </si>
+  <si>
+    <r>
+      <t>2.400.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-orient-nam-fung2001d0-day-thep-khong-gi-42mm.html</t>
+  </si>
+  <si>
+    <t>WOR00000063</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Orient Nam FUNG2001D0 Dây Thép Không Gỉ 42mm</t>
+  </si>
+  <si>
+    <r>
+      <t>2.360.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-casio-nu-ltp-e143dbl-5adr-day-da-30mm.html</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Casio Nữ LTP-E143DBL-5ADR Dây Da 30mm</t>
+  </si>
+  <si>
+    <r>
+      <t>2.468.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t> WCA00000261</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-casio-nam-mts-100d-1avdf-day-thep-khong-gi-47mm.html</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Casio Nam MTS-100D-1AVDF Dây Thép Không Gỉ 47mm</t>
+  </si>
+  <si>
+    <t> WCA00000338</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-casio-nam-mts-100d-2avdf-day-thep-khong-gi-47mm.html</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Casio Nam MTS-100D-2AVDF Dây Thép Không Gỉ 47mm</t>
+  </si>
+  <si>
+    <t>WCA00000339</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-nam-day-thep-cao-cap-khong-gi-316l-casio-efv-540d-1avudf.html</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Casio Nam EFV-540D-1AVUDF Dây Thép Không Gỉ 49mm</t>
+  </si>
+  <si>
+    <t>WCA00000115</t>
+  </si>
+  <si>
+    <r>
+      <t>2.562.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-co-dien-nam-day-thep-gi-casio-efv-530d-1avudf.html</t>
+  </si>
+  <si>
+    <t>WCA00000104</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Casio Edifice Nam EFV-530D-1AVUDF Dây Thép Không Gỉ 53×47,2×12,3mm</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Fossil Nam FS5535 Dây Nhựa 44mm</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-nam-day-cao-su-fossil-fs5535.html</t>
+  </si>
+  <si>
+    <r>
+      <t>2.670.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>WFO00000107</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-casio-nu-bgd-560thb-7dr-day-cao-su-45mm.html</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Casio Nữ BGD-560THB-7DR Dây Cao Su 45mm</t>
+  </si>
+  <si>
+    <r>
+      <t>2.773.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>WCA00000312</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-casio-nu-bgd-570th-1dr-day-cao-su-45mm.html</t>
+  </si>
+  <si>
+    <t>WCA00000313</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Casio Nữ BGD-570TH-1DR Dây Cao Su 45mm</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-nam-day-thep-khong-gi-chong-nuoc-orient-sune5002w0.html</t>
+  </si>
+  <si>
+    <r>
+      <t>2.810.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>WOR00000093</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Orient Nam SUNE5002W0 Dây Thép Không Gỉ 41mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1508,6 +1769,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1543,6 +1821,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1718,11 +2013,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2737,7 +3032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2745,7 +3040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2753,7 +3048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2761,7 +3056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2769,7 +3064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2777,7 +3072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2785,95 +3080,227 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
+      <c r="B71" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="E71" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
+      <c r="B72" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="E72" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
+      <c r="B73" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="E73" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
+      <c r="B74" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="E74" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
+      <c r="B75" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="E75" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
+      <c r="B76" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="E76" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
+      <c r="B77" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="E77" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
+      <c r="B78" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="E78" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
+      <c r="B79" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="E79" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
+      <c r="B80" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="E80" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
+      <c r="B81" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="E81" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2881,7 +3308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2889,7 +3316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2897,7 +3324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2905,7 +3332,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2913,7 +3340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2921,7 +3348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2929,7 +3356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2937,7 +3364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2945,7 +3372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2953,7 +3380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2961,7 +3388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2969,7 +3396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2977,7 +3404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2985,7 +3412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3035,14 +3462,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="F3" r:id="rId3"/>
-    <hyperlink ref="F4" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F38" r:id="rId6"/>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F38" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F78" r:id="rId7" xr:uid="{BCEA6C0F-1BCB-43CE-9F02-866A7367810E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>
--- a/CuaHangTrangSuc/productsInfo/products.xlsx
+++ b/CuaHangTrangSuc/productsInfo/products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="290">
   <si>
     <t>ID</t>
   </si>
@@ -1327,13 +1327,1060 @@
   </si>
   <si>
     <t>https://www.pnj.com.vn/bong-tai-vang-trang-y-18k-pnj-0000w000918.html</t>
+  </si>
+  <si>
+    <t>Lắc tay bạc PNJSilver hình vỏ sò 0000K000033</t>
+  </si>
+  <si>
+    <r>
+      <t>485.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/lac-tay-bac-pnjsilver-hinh-vo-so-0000k000033.html?gender=female&amp;category=lac-vong-tay_lac_lac-bac-pnjsilver</t>
+  </si>
+  <si>
+    <t>SL0000K000033</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/lac-tay-bac-pnjsilver-dinh-da-09982.100.html?gender=female&amp;category=lac-vong-tay_lac_lac-bac-pnjsilver</t>
+  </si>
+  <si>
+    <r>
+      <t>427.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>Lắc tay bạc đính đá PNJSilver XM00K000022</t>
+  </si>
+  <si>
+    <t>SLXM00K000022</t>
+  </si>
+  <si>
+    <r>
+      <t>551.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/lac-bac-pnjsilver-8039.html?gender=children&amp;category=lac-vong-tay_lac_lac-bac-pnjsilver</t>
+  </si>
+  <si>
+    <t>Lắc tay trẻ em bạc PNJSilver Juice Me Up 0000K000073</t>
+  </si>
+  <si>
+    <t>SL0000K000073</t>
+  </si>
+  <si>
+    <r>
+      <t>639.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/lac-tay-bac-pnjsilver-wanderlust-dinh-da-91429.100.html?gender=female&amp;category=lac-vong-tay_lac_lac-bac-pnjsilver</t>
+  </si>
+  <si>
+    <t>SLXM00H000001</t>
+  </si>
+  <si>
+    <t>Lắc tay bạc đính đá PNJSilver Wanderlust XM00H000001</t>
+  </si>
+  <si>
+    <t>SLXMXMK000015</t>
+  </si>
+  <si>
+    <t>Lắc tay bạc đính đá PNJSilver XMXMK000015</t>
+  </si>
+  <si>
+    <r>
+      <t>661.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/lac-tay-bac-pnjsilver-dinh-da-07436.100.html?gender=female&amp;category=lac-vong-tay_lac_lac-bac-pnjsilver</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/lac-tay-bac-pnjsilver-my-feeling-dinh-da-kk13156.html?gender=female&amp;category=lac-vong-tay_lac_lac-bac-pnjsilver</t>
+  </si>
+  <si>
+    <r>
+      <t>673.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>SLXMXMK000044</t>
+  </si>
+  <si>
+    <t>Lắc tay bạc đính đá PNJSilver My Feeling XMXMK000044</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/vong-tay-bac-tre-em-pnjsilver.html?gender=children&amp;category=lac-vong-tay_vong-tay_vong-tay-bac-pnjsilver</t>
+  </si>
+  <si>
+    <r>
+      <t>445.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>SV0000K000045</t>
+  </si>
+  <si>
+    <t>Vòng tay trẻ em bạc PNJSilver 0000K000045</t>
+  </si>
+  <si>
+    <r>
+      <t>498.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>SV0000K000072</t>
+  </si>
+  <si>
+    <t>Vòng tay bạc PNJSilver Her Time 0000K000072</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/vong-tay-bac-her-time-7610.html?gender=female&amp;category=lac-vong-tay_vong-tay_vong-tay-bac-pnjsilver</t>
+  </si>
+  <si>
+    <t>Lắc chân bạc đính đá màu đen PNJSilver XMZTK000002</t>
+  </si>
+  <si>
+    <r>
+      <t>546.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/lac-chan-bac-pnjsilver-dinh-da-mau-den-14187.403.html?gender=female&amp;category=lac-vong-tay_lac_lac-bac-pnjsilver</t>
+  </si>
+  <si>
+    <t>SLXMZTK000002</t>
+  </si>
+  <si>
+    <r>
+      <t>945.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/vong-tay-bac-pnjsilver-gem-melting-nh00w000001.html?gender=female&amp;category=lac-vong-tay_vong-tay_vong-tay-bac-pnjsilver</t>
+  </si>
+  <si>
+    <t> SVNH00W000001</t>
+  </si>
+  <si>
+    <t>Vòng tay bạc PNJSilver Gem Melting NH00W000001</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/vong-tay-bac-disneypnj-mickey-frozen-0000c000005.html?gender=female&amp;category=lac-vong-tay_vong-tay_vong-tay-bac-pnjsilver</t>
+  </si>
+  <si>
+    <r>
+      <t>1.295.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>Vòng tay bạc Disney|PNJ Frozen 0000C000005</t>
+  </si>
+  <si>
+    <t>SV0000C000005</t>
+  </si>
+  <si>
+    <r>
+      <t>857.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t> SVXMXMK000015</t>
+  </si>
+  <si>
+    <t>Vòng tay bạc đính đá PNJSilver XMXMK000015</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/vong-tay-bac-pnjsilver-dinh-da-12401.100.html?gender=female&amp;category=lac-vong-tay_vong-tay_vong-tay-bac-pnjsilver</t>
+  </si>
+  <si>
+    <t>Vòng tay bạc Ximen PNJSilver 0000W000007</t>
+  </si>
+  <si>
+    <t>SV0000W000007</t>
+  </si>
+  <si>
+    <r>
+      <t>1.045.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/vong-tay-bac-ximen-pnjsilver-0000w000007.html?gender=female&amp;category=lac-vong-tay_vong-tay_vong-tay-bac-pnjsilver</t>
+  </si>
+  <si>
+    <r>
+      <t>895.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/vong-tay-bac-ximen-pnjsilver-0000y000021.html?gender=female&amp;category=lac-vong-tay_vong-tay_vong-tay-bac-pnjsilver</t>
+  </si>
+  <si>
+    <t>SV0000Y000021</t>
+  </si>
+  <si>
+    <t>Vòng tay bạc Ximen PNJSilver 0000Y000021</t>
+  </si>
+  <si>
+    <r>
+      <t>1.585.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>SVXMXMH000004</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/vong-tay-bac-dinh-da-ecz-swarovski-disneypnj-minnie-xmxmh000004.html?gender=female&amp;category=lac-vong-tay_vong-tay_vong-tay-bac-pnjsilver</t>
+  </si>
+  <si>
+    <t>Vòng tay bạc đính đá Disney|PNJ Minnie XMXMH000004</t>
+  </si>
+  <si>
+    <r>
+      <t>1.335.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>SVXMZTW000001</t>
+  </si>
+  <si>
+    <t>Vòng tay bạc đính đá PNJSilver Aura XMZTW000001</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/vong-tay-bac-dinh-da-pnjsilver-aura-xmztw000001.html?gender=female&amp;category=lac-vong-tay_vong-tay_vong-tay-bac-pnjsilver</t>
+  </si>
+  <si>
+    <r>
+      <t>1.355.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>SLZTZTC000001</t>
+  </si>
+  <si>
+    <t>Lắc tay Bạc đính đá Disney|PNJ Beauty &amp; The Beast ZTZTC000001</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/lac-tay-bac-dinh-da-disneypnj-beauty-and-the-beast-ztztc000001.html?gender=female&amp;category=lac-vong-tay_lac_lac-bac-pnjsilver</t>
+  </si>
+  <si>
+    <r>
+      <t>745.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>SLZTMXW000001</t>
+  </si>
+  <si>
+    <t>Lắc chân Bạc đính đá Sythentic PNJSilver ZTMXW000001</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/lac-chan-bac-dinh-da-sythentic-pnjsilver-ztmxw000001.html?gender=female&amp;category=lac-vong-tay_lac_lac-bac-pnjsilver_lac-chan-bac-pnjsilver</t>
+  </si>
+  <si>
+    <t>Lắc tay bạc đính đá PNJSilver My Feeling XMXMK000049</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/lac-tay-bac-pnjsilver-my-feeling-dinh-da-12909.100.html?gender=female&amp;category=lac-vong-tay_lac_lac-bac-pnjsilver</t>
+  </si>
+  <si>
+    <t>SLXMXMK000049</t>
+  </si>
+  <si>
+    <r>
+      <t>471.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>Đồng Hồ Casio Nữ LTP-E143DBL-5ADR Dây Da 30mm</t>
+  </si>
+  <si>
+    <r>
+      <t>2.468.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>WCA00000261</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF282828"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (MÃ QUỐC TẾ: LTP-E143DBL-5ADR)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.085.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>SLXMXMK060010</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/lac-tay-bac-y-pnjsilver-dinh-da-xmxmk060010.html?gender=female&amp;category=lac-vong-tay_lac_lac-bac-pnjsilver</t>
+  </si>
+  <si>
+    <t>Lắc tay bạc Ý đính đá PNJSilver XMXMK060010</t>
+  </si>
+  <si>
+    <r>
+      <t>8.785.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>Đồng Hồ Thông Minh Michael Kors Nữ MKT5068 Dây Silicon 41mm</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-thong-minh-michael-kors-nu-mkt5068-day-silicon-41mm.html?gender=female&amp;category=dong-ho_dong-ho-michael-kors</t>
+  </si>
+  <si>
+    <r>
+      <t>WMI00000207</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF282828"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (MÃ QUỐC TẾ: MKT5068)</t>
+    </r>
+  </si>
+  <si>
+    <t>Đồng Hồ Orient Nam FUNG2001D0 Dây Thép Không Gỉ 42mm</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-orient-nam-fung2001d0-day-thep-khong-gi-42mm.html?gender=male&amp;category=dong-ho_dong-ho-orient</t>
+  </si>
+  <si>
+    <r>
+      <t>WOR00000063</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF282828"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (MÃ QUỐC TẾ: FUNG2001D0)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-casio-nu-ltp-e143dbl-5adr-day-da-30mm.html?gender=female&amp;category=dong-ho_dong-ho-casio</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-michael-kors-nu-mk6714-day-thep-khong-gi-44mm.html?gender=female&amp;category=dong-ho_dong-ho-michael-kors</t>
+  </si>
+  <si>
+    <r>
+      <t>8.930.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>Đồng Hồ Michael Kors Nữ MK6714 Dây Thép Không Gỉ 44mm</t>
+  </si>
+  <si>
+    <r>
+      <t>WMI00000222</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF282828"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (MÃ QUỐC TẾ: MK6714)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.970.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-thong-minh-michael-kors-nu-mkt5070-day-cao-su-43mm.html?gender=female&amp;category=dong-ho_dong-ho-michael-kors</t>
+  </si>
+  <si>
+    <r>
+      <t>WMI00000236</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF282828"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (MÃ QUỐC TẾ: MKT5070)</t>
+    </r>
+  </si>
+  <si>
+    <t>Đồng Hồ Thông Minh Michael Kors Nữ MKT5070 Dây Cao Su 43mm</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-nam-day-cao-su-fossil-fs5535.html?gender=male&amp;category=dong-ho_dong-ho-fossil</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Fossil Nam FS5535 Dây Nhựa 44mm</t>
+  </si>
+  <si>
+    <r>
+      <t>WFO00000107</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF282828"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (MÃ QUỐC TẾ: FS5535)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.670.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.420.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>Đồng Hồ Michael Kors Nữ MK2715 Dây Da 26mm</t>
+  </si>
+  <si>
+    <r>
+      <t>WMI00000061</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF282828"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (MÃ QUỐC TẾ: MK2715)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-nu-day-da-michael-kors-mk2715.html?gender=female&amp;category=dong-ho_dong-ho-michael-kors</t>
+  </si>
+  <si>
+    <r>
+      <t>4.550.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>Đồng Hồ Skagen Nam SKW8600 Dây Da 40mm</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-nu-day-da-skagen-skw8600.html?gender=female&amp;category=dong-ho_dong-ho-skagen</t>
+  </si>
+  <si>
+    <r>
+      <t>WSK00000158</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF282828"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (MÃ QUỐC TẾ: SKW8600)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.840.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>WSK00000209</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF282828"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (MÃ QUỐC TẾ: SKW6666)</t>
+    </r>
+  </si>
+  <si>
+    <t>Đồng Hồ Skagen Nam SKW6666 Dây Thép Không Gỉ 42 mm</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-skagen-nam-skw6666-day-thep-khong-gi-42-mm.html?gender=male&amp;category=dong-ho_dong-ho-skagen</t>
+  </si>
+  <si>
+    <r>
+      <t>4.530.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>WSK00000172</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF282828"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (MÃ QUỐC TẾ: SKW2799)</t>
+    </r>
+  </si>
+  <si>
+    <t>Đồng Hồ Skagen Nữ SKW2799 Dây Thép Không Gỉ 25mm</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-skagen-nu-skw2799-day-thep-khong-gi-25mm.html?gender=female&amp;category=dong-ho_dong-ho-skagen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1379,6 +2426,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF282828"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1401,7 +2454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1414,6 +2467,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1721,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2553,255 +3610,614 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
+      <c r="B42" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>172</v>
+      </c>
       <c r="E42" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F42" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
+      <c r="B43" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="E43" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
+      <c r="B44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="E44" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
+      <c r="B45" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="E45" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
+      <c r="B46" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="E46" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
+      <c r="B47" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="E47" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F47" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
+      <c r="B48" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="E48" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
+      <c r="B49" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>199</v>
+      </c>
       <c r="E49" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
+      <c r="B50" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="E50" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
+      <c r="B51" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="E51" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
+      <c r="B52" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="E52" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
+      <c r="B53" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="E53" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
+      <c r="B54" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>221</v>
+      </c>
       <c r="E54" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
+      <c r="B55" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>223</v>
+      </c>
       <c r="E55" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
+      <c r="B56" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="E56" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
+      <c r="B57" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>231</v>
+      </c>
       <c r="E57" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
+      <c r="B58" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>235</v>
+      </c>
       <c r="E58" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
+      <c r="B59" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>239</v>
+      </c>
       <c r="E59" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
+      <c r="B60" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="E60" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
+      <c r="B61" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="E61" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
+      <c r="B62" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="E62" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
+      <c r="B63" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D63" s="8"/>
       <c r="E63" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
+      <c r="B64" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="E64" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
+      <c r="B65" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>263</v>
+      </c>
       <c r="E65" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
+      <c r="B66" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="E66" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
+      <c r="B67" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>273</v>
+      </c>
       <c r="E67" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
+      <c r="B68" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>274</v>
+      </c>
       <c r="E68" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
+      <c r="B69" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>278</v>
+      </c>
       <c r="E69" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
+      <c r="B70" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>282</v>
+      </c>
       <c r="E70" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
+      <c r="B71" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>286</v>
+      </c>
       <c r="E71" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
+      <c r="D72" s="8"/>
       <c r="E72" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2809,7 +4225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2817,7 +4233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2825,7 +4241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2833,7 +4249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2841,7 +4257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2849,7 +4265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2857,7 +4273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3041,8 +4457,9 @@
     <hyperlink ref="F4" r:id="rId4"/>
     <hyperlink ref="F6" r:id="rId5"/>
     <hyperlink ref="F38" r:id="rId6"/>
+    <hyperlink ref="F50" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>
--- a/CuaHangTrangSuc/productsInfo/products.xlsx
+++ b/CuaHangTrangSuc/productsInfo/products.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767E5DC4-516D-4CA7-B552-1E1D7549AFB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67551777-6B89-4CB5-A37D-CBC58F7F7F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="243">
   <si>
     <t>ID</t>
   </si>
@@ -1588,6 +1588,262 @@
   </si>
   <si>
     <t>Đồng Hồ Orient Nam SUNE5002W0 Dây Thép Không Gỉ 41mm</t>
+  </si>
+  <si>
+    <t>Dây chuyền Vàng trắng 10K PNJ dây đan kiểu chữ cong 0000W000105</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/day-chuyen-pnj-vang-trang-10k-8094.html</t>
+  </si>
+  <si>
+    <r>
+      <t>1.080.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>GD0000W000105</t>
+  </si>
+  <si>
+    <t>Dây chuyền Vàng trắng 10K PNJ 0000W000220</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/day-chuyen-pnj-vang-trang-10k-gdmrwkxx025.006.html</t>
+  </si>
+  <si>
+    <r>
+      <t>1.322.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>GD0000W000220</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/day-chuyen-vang-trang-10k-6813.html</t>
+  </si>
+  <si>
+    <t>Dây chuyền Vàng trắng 10K PNJ 0000W000177</t>
+  </si>
+  <si>
+    <r>
+      <t>1.717.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t> GD0000W000177</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/day-chuyen-vang-18k-6555.html?</t>
+  </si>
+  <si>
+    <r>
+      <t>2.341.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>Dây chuyền Vàng 18K PNJ kiểu dây đan dập chữ S xoắn suốt 0000Y000711</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/day-chuyen-pnj-vang-trang-y-18k-8727.html</t>
+  </si>
+  <si>
+    <t>Dây chuyền Vàng trắng Ý 18K PNJ 0000W000277</t>
+  </si>
+  <si>
+    <r>
+      <t>2.175.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>Dây chuyền Vàng 18K PNJ dây đan kiểu chữ cong 0000Y000256</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/day-chuyen-pnj-vang-18k-day-dan-kieu-chu-cong-vi.html</t>
+  </si>
+  <si>
+    <r>
+      <t>1.862.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>GD0000Y000256</t>
+  </si>
+  <si>
+    <t>GD0000W000277</t>
+  </si>
+  <si>
+    <t>GD0000Y000711</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/day-co-pnj-vang-18k-dinh-da-cz-7256.html</t>
+  </si>
+  <si>
+    <t>Dây cổ Vàng 18K đính đá CZ PNJ XMXMY000021</t>
+  </si>
+  <si>
+    <t>GCXMXMY000021</t>
+  </si>
+  <si>
+    <r>
+      <t>6.713.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/day-co-pnj-vang-18k-dinh-da-cz-ya59993.102.html</t>
+  </si>
+  <si>
+    <t>Dây cổ Vàng 18K đính đá CZ PNJ XMXMY000019</t>
+  </si>
+  <si>
+    <r>
+      <t>6.627.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>GCXMXMY000019</t>
   </si>
 </sst>
 </file>
@@ -2016,8 +2272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="B82" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3300,68 +3556,164 @@
         <v>207</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="27.6" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
+      <c r="B82" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="E82" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F82" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
+      <c r="B83" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="E83" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F83" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
+      <c r="B84" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="E84" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F84" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
+      <c r="B85" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>224</v>
+      </c>
       <c r="E85" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F85" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
+      <c r="B86" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>228</v>
+      </c>
       <c r="E86" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F86" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
+      <c r="B87" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="E87" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F87" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
+      <c r="B88" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="E88" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F88" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
+      <c r="B89" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>241</v>
+      </c>
       <c r="E89" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="F89" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">

--- a/CuaHangTrangSuc/productsInfo/products.xlsx
+++ b/CuaHangTrangSuc/productsInfo/products.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B07EA85-DF56-404F-950D-CF93E6DC4426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="334">
   <si>
     <t>ID</t>
   </si>
@@ -2374,12 +2375,364 @@
   </si>
   <si>
     <t>https://www.pnj.com.vn/dong-ho-skagen-nu-skw2799-day-thep-khong-gi-25mm.html?gender=female&amp;category=dong-ho_dong-ho-skagen</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/day-co-pnj-vang-18k-dinh-da-cz-ya81532.102.html</t>
+  </si>
+  <si>
+    <t>Dây cổ Vàng 18K đính đá CZ PNJ XMXMY000026</t>
+  </si>
+  <si>
+    <r>
+      <t>20.615.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>GCXMXMY000026</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/day-co-pnj-sac-xuan-vang-trang-14k-dinh-da-topaz-95249.600.html</t>
+  </si>
+  <si>
+    <t>Dây cổ Vàng trắng 14K đính đá Topaz PNJ Sắc Xuân TPMXW000003</t>
+  </si>
+  <si>
+    <r>
+      <t>9.275.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>GCTPMXW000003</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/day-co-pnj-sac-xuan-18k-vang-dinh-da-citrine-yb88479.600.html</t>
+  </si>
+  <si>
+    <t>Dây cổ Vàng 18K Vàng đính đá Citrine PNJ Sắc Xuân CTXMY000004</t>
+  </si>
+  <si>
+    <t>GCCTXMY000004</t>
+  </si>
+  <si>
+    <r>
+      <t>10.326.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/day-co-pnj-phuong-hoang-vang-18k-dinh-da-ruby-81993.600.html</t>
+  </si>
+  <si>
+    <t>Dây cổ Vàng 18K đính đá Ruby PNJ Phượng Hoàng RBXMY000016</t>
+  </si>
+  <si>
+    <r>
+      <t>10.691.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>GCRBXMY000016</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/day-co-pnj-vang-trang-14k-dinh-da-topaz-79812.600.html</t>
+  </si>
+  <si>
+    <t>Dây cổ Vàng trắng 14K đính đá Topaz PNJ TPXMW000005</t>
+  </si>
+  <si>
+    <r>
+      <t>68.528.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>GCTPXMW000005</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/day-co-pnj-sac-xuan-vang-18k-dinh-da-citrine-yb88324.600.html</t>
+  </si>
+  <si>
+    <t>Dây cổ Vàng 18K Vàng đính đá Citrine PNJ Sắc Xuân CTXMY000003</t>
+  </si>
+  <si>
+    <t>GCCTXMY000003</t>
+  </si>
+  <si>
+    <r>
+      <t>10.342.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/day-chuyen-pnj-vang-18k-8738.html</t>
+  </si>
+  <si>
+    <t>Dây chuyền Vàng 18K PNJ 0000Y000952</t>
+  </si>
+  <si>
+    <t>GD0000Y000952</t>
+  </si>
+  <si>
+    <r>
+      <t>2.441.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/day-chuyen-vang-10k-6920.html</t>
+  </si>
+  <si>
+    <t>Dây chuyền Vàng trắng 10K PNJ kiểu dây đan lật đôi 0000W000221</t>
+  </si>
+  <si>
+    <t>GD0000W000221</t>
+  </si>
+  <si>
+    <r>
+      <t>1.826.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/day-chuyen-pnj-vang-18k-8750.html</t>
+  </si>
+  <si>
+    <t>Dây chuyền Vàng 18K PNJ 0000Y000708</t>
+  </si>
+  <si>
+    <t>GD0000Y000708</t>
+  </si>
+  <si>
+    <r>
+      <t>2.450.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/day-chuyen-vang-trang-18k-pnj-0000w060032.html</t>
+  </si>
+  <si>
+    <t>Dây chuyền Vàng trắng 18K PNJ 0000W060032</t>
+  </si>
+  <si>
+    <t>GD0000W060032</t>
+  </si>
+  <si>
+    <r>
+      <t>10.346.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/day-co-vang-y-18k-pnj-0000h060001.html</t>
+  </si>
+  <si>
+    <t>Dây cổ Vàng Ý 18K PNJ 0000H060001</t>
+  </si>
+  <si>
+    <r>
+      <t>5.723.000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FFBB934D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+  </si>
+  <si>
+    <t>GC0000H060001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2565,6 +2918,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2600,6 +2970,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2775,11 +3162,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4281,7 +4668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4289,7 +4676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4297,7 +4684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4305,7 +4692,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4313,7 +4700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4321,7 +4708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4329,7 +4716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4337,7 +4724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4345,7 +4732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4353,7 +4740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4361,103 +4748,235 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
+      <c r="B91" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>292</v>
+      </c>
       <c r="E91" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
+      <c r="B92" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="E92" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
+      <c r="B93" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>301</v>
+      </c>
       <c r="E93" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
+      <c r="B94" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>304</v>
+      </c>
       <c r="E94" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
+      <c r="B95" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>308</v>
+      </c>
       <c r="E95" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
+      <c r="B96" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>313</v>
+      </c>
       <c r="E96" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
+      <c r="B97" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>317</v>
+      </c>
       <c r="E97" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="27.6" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
+      <c r="B98" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>321</v>
+      </c>
       <c r="E98" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
+      <c r="B99" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>325</v>
+      </c>
       <c r="E99" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
+      <c r="B100" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>329</v>
+      </c>
       <c r="E100" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
+      <c r="B101" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>332</v>
+      </c>
       <c r="E101" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="F101" t="s">
+        <v>330</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="F3" r:id="rId3"/>
-    <hyperlink ref="F4" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F38" r:id="rId6"/>
-    <hyperlink ref="F50" r:id="rId7"/>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F38" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F50" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>

--- a/CuaHangTrangSuc/productsInfo/products.xlsx
+++ b/CuaHangTrangSuc/productsInfo/products.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B07EA85-DF56-404F-950D-CF93E6DC4426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30B282E-8A6D-4029-B4F5-E482C557A91B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="403">
   <si>
     <t>ID</t>
   </si>
@@ -2727,6 +2727,213 @@
   </si>
   <si>
     <t>GC0000H060001</t>
+  </si>
+  <si>
+    <t>WFO00000258</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Fossil Nữ ES4650 Dây Da 28mm</t>
+  </si>
+  <si>
+    <t>2.400.000 đ</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-fossil-nu-es4650-day-da-28mm.html</t>
+  </si>
+  <si>
+    <t>WOR00000063</t>
+  </si>
+  <si>
+    <t>2.360.000 đ</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-orient-nam-fung2001d0-day-thep-khong-gi-42mm.html</t>
+  </si>
+  <si>
+    <t> WCA00000261</t>
+  </si>
+  <si>
+    <t>2.468.000 đ</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-casio-nu-ltp-e143dbl-5adr-day-da-30mm.html</t>
+  </si>
+  <si>
+    <t> WCA00000338</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Casio Nam MTS-100D-1AVDF Dây Thép Không Gỉ 47mm</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-casio-nam-mts-100d-1avdf-day-thep-khong-gi-47mm.html</t>
+  </si>
+  <si>
+    <t>WCA00000339</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Casio Nam MTS-100D-2AVDF Dây Thép Không Gỉ 47mm</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-casio-nam-mts-100d-2avdf-day-thep-khong-gi-47mm.html</t>
+  </si>
+  <si>
+    <t>WCA00000115</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Casio Nam EFV-540D-1AVUDF Dây Thép Không Gỉ 49mm</t>
+  </si>
+  <si>
+    <t>2.562.000 đ</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-nam-day-thep-cao-cap-khong-gi-316l-casio-efv-540d-1avudf.html</t>
+  </si>
+  <si>
+    <t>WCA00000104</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Casio Edifice Nam EFV-530D-1AVUDF Dây Thép Không Gỉ 53×47,2×12,3mm</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-co-dien-nam-day-thep-gi-casio-efv-530d-1avudf.html</t>
+  </si>
+  <si>
+    <t>WFO00000107</t>
+  </si>
+  <si>
+    <t>2.670.000 đ</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-nam-day-cao-su-fossil-fs5535.html</t>
+  </si>
+  <si>
+    <t>WCA00000312</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Casio Nữ BGD-560THB-7DR Dây Cao Su 45mm</t>
+  </si>
+  <si>
+    <t>2.773.000 đ</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-casio-nu-bgd-560thb-7dr-day-cao-su-45mm.html</t>
+  </si>
+  <si>
+    <t>WCA00000313</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Casio Nữ BGD-570TH-1DR Dây Cao Su 45mm</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-casio-nu-bgd-570th-1dr-day-cao-su-45mm.html</t>
+  </si>
+  <si>
+    <t>WOR00000093</t>
+  </si>
+  <si>
+    <t>Đồng Hồ Orient Nam SUNE5002W0 Dây Thép Không Gỉ 41mm</t>
+  </si>
+  <si>
+    <t>2.810.000 đ</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/dong-ho-nam-day-thep-khong-gi-chong-nuoc-orient-sune5002w0.html</t>
+  </si>
+  <si>
+    <t>GD0000W000105</t>
+  </si>
+  <si>
+    <t>Dây chuyền Vàng trắng 10K PNJ dây đan kiểu chữ cong 0000W000105</t>
+  </si>
+  <si>
+    <t>1.080.000 đ</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/day-chuyen-pnj-vang-trang-10k-8094.html</t>
+  </si>
+  <si>
+    <t>GD0000W000220</t>
+  </si>
+  <si>
+    <t>Dây chuyền Vàng trắng 10K PNJ 0000W000220</t>
+  </si>
+  <si>
+    <t>1.322.000 đ</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/day-chuyen-pnj-vang-trang-10k-gdmrwkxx025.006.html</t>
+  </si>
+  <si>
+    <t> GD0000W000177</t>
+  </si>
+  <si>
+    <t>Dây chuyền Vàng trắng 10K PNJ 0000W000177</t>
+  </si>
+  <si>
+    <t>1.717.000 đ</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/day-chuyen-vang-trang-10k-6813.html</t>
+  </si>
+  <si>
+    <t>GD0000Y000711</t>
+  </si>
+  <si>
+    <t>Dây chuyền Vàng 18K PNJ kiểu dây đan dập chữ S xoắn suốt 0000Y000711</t>
+  </si>
+  <si>
+    <t>2.341.000 đ</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/day-chuyen-vang-18k-6555.html?</t>
+  </si>
+  <si>
+    <t>GD0000W000277</t>
+  </si>
+  <si>
+    <t>Dây chuyền Vàng trắng Ý 18K PNJ 0000W000277</t>
+  </si>
+  <si>
+    <t>2.175.000 đ</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/day-chuyen-pnj-vang-trang-y-18k-8727.html</t>
+  </si>
+  <si>
+    <t>GD0000Y000256</t>
+  </si>
+  <si>
+    <t>Dây chuyền Vàng 18K PNJ dây đan kiểu chữ cong 0000Y000256</t>
+  </si>
+  <si>
+    <t>1.862.000 đ</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/day-chuyen-pnj-vang-18k-day-dan-kieu-chu-cong-vi.html</t>
+  </si>
+  <si>
+    <t>GCXMXMY000021</t>
+  </si>
+  <si>
+    <t>Dây cổ Vàng 18K đính đá CZ PNJ XMXMY000021</t>
+  </si>
+  <si>
+    <t>6.713.000 đ</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/day-co-pnj-vang-18k-dinh-da-cz-7256.html</t>
+  </si>
+  <si>
+    <t>GCXMXMY000019</t>
+  </si>
+  <si>
+    <t>Dây cổ Vàng 18K đính đá CZ PNJ XMXMY000019</t>
+  </si>
+  <si>
+    <t>6.627.000 đ</t>
+  </si>
+  <si>
+    <t>https://www.pnj.com.vn/day-co-pnj-vang-18k-dinh-da-cz-ya59993.102.html</t>
   </si>
 </sst>
 </file>
@@ -3165,8 +3372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="J138" sqref="J138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4595,157 +4802,384 @@
         <v>289</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="D72" s="8"/>
+      <c r="B72" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="E72" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F72" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
+      <c r="B73" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>339</v>
+      </c>
       <c r="E73" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F73" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
+      <c r="B74" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="E74" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F74" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
+      <c r="B75" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="E75" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F75" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
+      <c r="B76" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="E76" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F76" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
+      <c r="B77" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>352</v>
+      </c>
       <c r="E77" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F77" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
+      <c r="B78" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>352</v>
+      </c>
       <c r="E78" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F78" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
+      <c r="B79" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>358</v>
+      </c>
       <c r="E79" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F79" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
+      <c r="B80" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="E80" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F80" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
+      <c r="B81" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="E81" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F81" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
+      <c r="B82" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>369</v>
+      </c>
       <c r="E82" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
+      <c r="B83" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>373</v>
+      </c>
       <c r="E83" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F83" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
+      <c r="B84" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>377</v>
+      </c>
       <c r="E84" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F84" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
+      <c r="B85" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>381</v>
+      </c>
       <c r="E85" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F85" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
+      <c r="B86" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>385</v>
+      </c>
       <c r="E86" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F86" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
+      <c r="B87" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>389</v>
+      </c>
       <c r="E87" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F87" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
+      <c r="B88" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>393</v>
+      </c>
       <c r="E88" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F88" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
+      <c r="B89" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>397</v>
+      </c>
       <c r="E89" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F89" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
+      <c r="B90" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>401</v>
+      </c>
       <c r="E90" s="5" t="s">
         <v>14</v>
+      </c>
+      <c r="F90" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="21" x14ac:dyDescent="0.35">

--- a/CuaHangTrangSuc/productsInfo/products.xlsx
+++ b/CuaHangTrangSuc/productsInfo/products.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30B282E-8A6D-4029-B4F5-E482C557A91B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,9 +25,6 @@
     <t>SNXM00K000143</t>
   </si>
   <si>
-    <t>Nhẫn nam bạc đính đá PNJSilver XM00K000143</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -58,9 +54,6 @@
     <t>Nhẫn</t>
   </si>
   <si>
-    <t>Nhẫn Vàng trắng 14K đính đá Topaz PNJ TPXMW000002</t>
-  </si>
-  <si>
     <t>GNTPXMW000002</t>
   </si>
   <si>
@@ -102,9 +95,6 @@
     <t>Dây chuyền</t>
   </si>
   <si>
-    <t>Nhẫn cưới Vàng trắng 10K PNJ 0000W000041</t>
-  </si>
-  <si>
     <t>GN0000W000041</t>
   </si>
   <si>
@@ -134,9 +124,6 @@
     <t>SNXM00K000152</t>
   </si>
   <si>
-    <t>Nhẫn bạc đính đá PNJSilver Amazing Garden hình con bươm bướm XM00K000152</t>
-  </si>
-  <si>
     <r>
       <t>343.000</t>
     </r>
@@ -175,9 +162,6 @@
     <t>https://www.pnj.com.vn/nhan-cuoi-vang-trang-10k-pnj-0000w000041.html</t>
   </si>
   <si>
-    <t>Nhẫn bạc đính đá PNJSilver Wanderlust hình vuơng miện XMXMK000189</t>
-  </si>
-  <si>
     <t>SNXMXMK000189</t>
   </si>
   <si>
@@ -210,9 +194,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Nhẫn cưới Vàng 18K PNJ Long Phụng 0000Y000355</t>
-  </si>
-  <si>
     <t>GN0000Y000355</t>
   </si>
   <si>
@@ -242,9 +223,6 @@
     <t>https://www.pnj.com.vn/nhan-cuoi-pnj-long-phung-vang-18k-77074.html</t>
   </si>
   <si>
-    <t>Nhẫn nam bạc đính đá màu đỏ PNJSilver ZT00A060000</t>
-  </si>
-  <si>
     <t>SNZT00A060000</t>
   </si>
   <si>
@@ -274,9 +252,6 @@
     <t>https://www.pnj.com.vn/nhan-nam-bac-dinh-da-mau-do-pnjsilver-zt00a060000.html</t>
   </si>
   <si>
-    <t>Nhẫn nam bạc PNJSilver Friendzone Breaker 0000K000074</t>
-  </si>
-  <si>
     <t>SN0000K000074</t>
   </si>
   <si>
@@ -309,9 +284,6 @@
     <t>GNDD00Y000633</t>
   </si>
   <si>
-    <t>Nhẫn cưới Kim cương Vàng 18K PNJ Vàng Son DD00Y000633</t>
-  </si>
-  <si>
     <r>
       <t>5.527.000</t>
     </r>
@@ -341,9 +313,6 @@
     <t>GNDD00Y000962</t>
   </si>
   <si>
-    <t>Nhẫn cưới Kim cương Vàng 18K PNJ DD00Y000962</t>
-  </si>
-  <si>
     <r>
       <t>10.848.000</t>
     </r>
@@ -373,9 +342,6 @@
     <t>GNDD00W000480</t>
   </si>
   <si>
-    <t>Nhẫn cưới Kim cương Vàng trắng 14K PNJ Chung Đôi DD00W000480</t>
-  </si>
-  <si>
     <r>
       <t>3.941.000</t>
     </r>
@@ -405,9 +371,6 @@
     <t>GNDD00W000360</t>
   </si>
   <si>
-    <t>Nhẫn cưới nam Kim cương Vàng trắng 14K PNJ Chung Đôi DD00W000360</t>
-  </si>
-  <si>
     <r>
       <t>4.312.000</t>
     </r>
@@ -437,9 +400,6 @@
     <t>GNDD00W000374</t>
   </si>
   <si>
-    <t>Nhẫn cưới nam Kim cương Vàng trắng 14K PNJ Chung Đôi DD00W000374</t>
-  </si>
-  <si>
     <r>
       <t>4.544.000</t>
     </r>
@@ -469,9 +429,6 @@
     <t>GNDD00W000477</t>
   </si>
   <si>
-    <t>Nhẫn cưới Kim cương Vàng trắng 14K PNJ Chung Đôi DD00W000477</t>
-  </si>
-  <si>
     <r>
       <t>4.648.000</t>
     </r>
@@ -501,9 +458,6 @@
     <t>GNDD00W000450</t>
   </si>
   <si>
-    <t>Nhẫn cưới Kim cương Vàng trắng 14K PNJ DD00W000450</t>
-  </si>
-  <si>
     <r>
       <t>4.599.000</t>
     </r>
@@ -533,9 +487,6 @@
     <t>GNPFXMW000041</t>
   </si>
   <si>
-    <t>Nhẫn Vàng trắng 14K đính ngọc trai Freshwater PNJ PFXMW000041</t>
-  </si>
-  <si>
     <r>
       <t>6.001.500</t>
     </r>
@@ -565,9 +516,6 @@
     <t>GNPFXMY000065</t>
   </si>
   <si>
-    <t>Nhẫn Vàng 18K đính ngọc trai Freshwater PNJ PFXMY000065</t>
-  </si>
-  <si>
     <r>
       <t>7.001.250</t>
     </r>
@@ -597,9 +545,6 @@
     <t>GNPFXMY000100</t>
   </si>
   <si>
-    <t>Nhẫn Vàng 18K đính ngọc trai Freshwater PNJ PFXMY000100</t>
-  </si>
-  <si>
     <r>
       <t>8.307.000</t>
     </r>
@@ -629,9 +574,6 @@
     <t>GNPFXMY000091</t>
   </si>
   <si>
-    <t>Nhẫn Vàng 18K đính ngọc trai Freshwater PNJ PFXMY000091</t>
-  </si>
-  <si>
     <r>
       <t>7.663.000</t>
     </r>
@@ -661,9 +603,6 @@
     <t>GNPFXMW000064</t>
   </si>
   <si>
-    <t>Nhẫn Vàng trắng 14K đính ngọc trai Freshwater PNJ PFXMW000064</t>
-  </si>
-  <si>
     <r>
       <t>15.330.000</t>
     </r>
@@ -693,9 +632,6 @@
     <t>GBDD00W000392</t>
   </si>
   <si>
-    <t>Bông tai Kim cương Vàng trắng 14K PNJ DD00W000392</t>
-  </si>
-  <si>
     <r>
       <t>5.687.000</t>
     </r>
@@ -725,9 +661,6 @@
     <t>GBDD00W000200</t>
   </si>
   <si>
-    <t>Bông tai Kim cương Vàng trắng 14K PNJ DD00W000200</t>
-  </si>
-  <si>
     <r>
       <t>13.600.000</t>
     </r>
@@ -757,9 +690,6 @@
     <t>GBDDDDW000672</t>
   </si>
   <si>
-    <t>Bông tai Kim cương Vàng trắng 14K PNJ First Diamond DDDDW000672</t>
-  </si>
-  <si>
     <r>
       <t>15.943.000</t>
     </r>
@@ -789,9 +719,6 @@
     <t>GBDD00W000360</t>
   </si>
   <si>
-    <t>Bông tai Kim cương Vàng trắng 14K PNJ DD00W000360</t>
-  </si>
-  <si>
     <r>
       <t>15.540.000</t>
     </r>
@@ -821,9 +748,6 @@
     <t>GBDD00W000375</t>
   </si>
   <si>
-    <t>Bông tai Kim cương Vàng trắng 14K PNJ DD00W000375</t>
-  </si>
-  <si>
     <r>
       <t>16.586.000</t>
     </r>
@@ -853,9 +777,6 @@
     <t>GBRBXMY000033</t>
   </si>
   <si>
-    <t>Bông tai Vàng 18K đính đá Ruby PNJ RBXMY000033</t>
-  </si>
-  <si>
     <r>
       <t>9.558.000</t>
     </r>
@@ -885,9 +806,6 @@
     <t>GBSPXMW000045</t>
   </si>
   <si>
-    <t>Bông tai vàng 14K đính đá Sapphire PNJ SPXMW000045</t>
-  </si>
-  <si>
     <r>
       <t>11.792.000</t>
     </r>
@@ -917,9 +835,6 @@
     <t>GBTPXMW000169</t>
   </si>
   <si>
-    <t>Bông tai cưới Vàng trắng 14K đính đá Topaz True Love PNJ TPXMW000169</t>
-  </si>
-  <si>
     <r>
       <t>14.030.000</t>
     </r>
@@ -949,9 +864,6 @@
     <t>GBRBXMY000260</t>
   </si>
   <si>
-    <t>Bông tai Vàng 18K đính đá Ruby PNJ Sắc Xuân RBXMY000260</t>
-  </si>
-  <si>
     <r>
       <t>15.348.000</t>
     </r>
@@ -981,9 +893,6 @@
     <t>GBCTXMY000140</t>
   </si>
   <si>
-    <t>Bông tai Vàng 14K đính đá Citrine PNJ Sắc Xuân CTXMY000140</t>
-  </si>
-  <si>
     <r>
       <t>6.185.000</t>
     </r>
@@ -1013,9 +922,6 @@
     <t>SBPF00K000011</t>
   </si>
   <si>
-    <t>Bông tai bạc đính ngọc trai 6 ly PNJSilver PF00K000011</t>
-  </si>
-  <si>
     <r>
       <t>257.000</t>
     </r>
@@ -1045,9 +951,6 @@
     <t>SBPFXMK000033</t>
   </si>
   <si>
-    <t>Bông tai bạc đính ngọc trai PNJSilver My Feeling hình giọt nước PFXMK000033</t>
-  </si>
-  <si>
     <r>
       <t>609.000</t>
     </r>
@@ -1080,9 +983,6 @@
     <t>SBPFXMK000013</t>
   </si>
   <si>
-    <t>Bông tai bạc đính ngọc trai PNJSilver PFXMK000013</t>
-  </si>
-  <si>
     <r>
       <t>537.000</t>
     </r>
@@ -1109,9 +1009,6 @@
     <t>SBNHXMW000001</t>
   </si>
   <si>
-    <t>Bông tai bạc PNJSilver Gem Melting NHXMW000001</t>
-  </si>
-  <si>
     <r>
       <t>525.000</t>
     </r>
@@ -1141,9 +1038,6 @@
     <t>SBNH00W000001</t>
   </si>
   <si>
-    <t>Bông tai bạc PNJSilver Gem Melting NH00W000001</t>
-  </si>
-  <si>
     <r>
       <t>635.000</t>
     </r>
@@ -1173,9 +1067,6 @@
     <t>GB0000Y000080</t>
   </si>
   <si>
-    <t>Bông tai Vàng 18K PNJ 0000Y000080</t>
-  </si>
-  <si>
     <r>
       <t>2.621.000</t>
     </r>
@@ -1205,9 +1096,6 @@
     <t>GB0000Y000113</t>
   </si>
   <si>
-    <t>Bông tai cưới Vàng 24K PNJ 0000Y000113</t>
-  </si>
-  <si>
     <r>
       <t>5.556.000</t>
     </r>
@@ -1237,9 +1125,6 @@
     <t>GB0000Y000086</t>
   </si>
   <si>
-    <t>Bông tai cưới Vàng 24K PNJ Mật Ngọt Hạnh Phúc 0000Y000086</t>
-  </si>
-  <si>
     <r>
       <t>6.701.000</t>
     </r>
@@ -1269,9 +1154,6 @@
     <t>GB0000Y000114</t>
   </si>
   <si>
-    <t>Bông tai cưới Vàng 24K PNJ 0000Y000114</t>
-  </si>
-  <si>
     <r>
       <t>9.058.000</t>
     </r>
@@ -1301,9 +1183,6 @@
     <t>GB0000W000918</t>
   </si>
   <si>
-    <t>Bông tai Vàng trắng Ý 18K PNJ 0000W000918</t>
-  </si>
-  <si>
     <r>
       <t>3.964.000</t>
     </r>
@@ -1330,9 +1209,6 @@
     <t>https://www.pnj.com.vn/bong-tai-vang-trang-y-18k-pnj-0000w000918.html</t>
   </si>
   <si>
-    <t>Lắc tay bạc PNJSilver hình vỏ sò 0000K000033</t>
-  </si>
-  <si>
     <r>
       <t>485.000</t>
     </r>
@@ -1388,9 +1264,6 @@
     </r>
   </si>
   <si>
-    <t>Lắc tay bạc đính đá PNJSilver XM00K000022</t>
-  </si>
-  <si>
     <t>SLXM00K000022</t>
   </si>
   <si>
@@ -1420,9 +1293,6 @@
     <t>https://www.pnj.com.vn/lac-bac-pnjsilver-8039.html?gender=children&amp;category=lac-vong-tay_lac_lac-bac-pnjsilver</t>
   </si>
   <si>
-    <t>Lắc tay trẻ em bạc PNJSilver Juice Me Up 0000K000073</t>
-  </si>
-  <si>
     <t>SL0000K000073</t>
   </si>
   <si>
@@ -1455,15 +1325,9 @@
     <t>SLXM00H000001</t>
   </si>
   <si>
-    <t>Lắc tay bạc đính đá PNJSilver Wanderlust XM00H000001</t>
-  </si>
-  <si>
     <t>SLXMXMK000015</t>
   </si>
   <si>
-    <t>Lắc tay bạc đính đá PNJSilver XMXMK000015</t>
-  </si>
-  <si>
     <r>
       <t>661.000</t>
     </r>
@@ -1519,9 +1383,6 @@
     <t>SLXMXMK000044</t>
   </si>
   <si>
-    <t>Lắc tay bạc đính đá PNJSilver My Feeling XMXMK000044</t>
-  </si>
-  <si>
     <t>https://www.pnj.com.vn/vong-tay-bac-tre-em-pnjsilver.html?gender=children&amp;category=lac-vong-tay_vong-tay_vong-tay-bac-pnjsilver</t>
   </si>
   <si>
@@ -1551,9 +1412,6 @@
     <t>SV0000K000045</t>
   </si>
   <si>
-    <t>Vòng tay trẻ em bạc PNJSilver 0000K000045</t>
-  </si>
-  <si>
     <r>
       <t>498.000</t>
     </r>
@@ -1580,15 +1438,9 @@
     <t>SV0000K000072</t>
   </si>
   <si>
-    <t>Vòng tay bạc PNJSilver Her Time 0000K000072</t>
-  </si>
-  <si>
     <t>https://www.pnj.com.vn/vong-tay-bac-her-time-7610.html?gender=female&amp;category=lac-vong-tay_vong-tay_vong-tay-bac-pnjsilver</t>
   </si>
   <si>
-    <t>Lắc chân bạc đính đá màu đen PNJSilver XMZTK000002</t>
-  </si>
-  <si>
     <r>
       <t>546.000</t>
     </r>
@@ -1647,9 +1499,6 @@
     <t> SVNH00W000001</t>
   </si>
   <si>
-    <t>Vòng tay bạc PNJSilver Gem Melting NH00W000001</t>
-  </si>
-  <si>
     <t>https://www.pnj.com.vn/vong-tay-bac-disneypnj-mickey-frozen-0000c000005.html?gender=female&amp;category=lac-vong-tay_vong-tay_vong-tay-bac-pnjsilver</t>
   </si>
   <si>
@@ -1676,9 +1525,6 @@
     </r>
   </si>
   <si>
-    <t>Vòng tay bạc Disney|PNJ Frozen 0000C000005</t>
-  </si>
-  <si>
     <t>SV0000C000005</t>
   </si>
   <si>
@@ -1708,15 +1554,9 @@
     <t> SVXMXMK000015</t>
   </si>
   <si>
-    <t>Vòng tay bạc đính đá PNJSilver XMXMK000015</t>
-  </si>
-  <si>
     <t>https://www.pnj.com.vn/vong-tay-bac-pnjsilver-dinh-da-12401.100.html?gender=female&amp;category=lac-vong-tay_vong-tay_vong-tay-bac-pnjsilver</t>
   </si>
   <si>
-    <t>Vòng tay bạc Ximen PNJSilver 0000W000007</t>
-  </si>
-  <si>
     <t>SV0000W000007</t>
   </si>
   <si>
@@ -1775,9 +1615,6 @@
     <t>SV0000Y000021</t>
   </si>
   <si>
-    <t>Vòng tay bạc Ximen PNJSilver 0000Y000021</t>
-  </si>
-  <si>
     <r>
       <t>1.585.000</t>
     </r>
@@ -1807,9 +1644,6 @@
     <t>https://www.pnj.com.vn/vong-tay-bac-dinh-da-ecz-swarovski-disneypnj-minnie-xmxmh000004.html?gender=female&amp;category=lac-vong-tay_vong-tay_vong-tay-bac-pnjsilver</t>
   </si>
   <si>
-    <t>Vòng tay bạc đính đá Disney|PNJ Minnie XMXMH000004</t>
-  </si>
-  <si>
     <r>
       <t>1.335.000</t>
     </r>
@@ -1836,9 +1670,6 @@
     <t>SVXMZTW000001</t>
   </si>
   <si>
-    <t>Vòng tay bạc đính đá PNJSilver Aura XMZTW000001</t>
-  </si>
-  <si>
     <t>https://www.pnj.com.vn/vong-tay-bac-dinh-da-pnjsilver-aura-xmztw000001.html?gender=female&amp;category=lac-vong-tay_vong-tay_vong-tay-bac-pnjsilver</t>
   </si>
   <si>
@@ -1868,9 +1699,6 @@
     <t>SLZTZTC000001</t>
   </si>
   <si>
-    <t>Lắc tay Bạc đính đá Disney|PNJ Beauty &amp; The Beast ZTZTC000001</t>
-  </si>
-  <si>
     <t>https://www.pnj.com.vn/lac-tay-bac-dinh-da-disneypnj-beauty-and-the-beast-ztztc000001.html?gender=female&amp;category=lac-vong-tay_lac_lac-bac-pnjsilver</t>
   </si>
   <si>
@@ -1900,13 +1728,7 @@
     <t>SLZTMXW000001</t>
   </si>
   <si>
-    <t>Lắc chân Bạc đính đá Sythentic PNJSilver ZTMXW000001</t>
-  </si>
-  <si>
     <t>https://www.pnj.com.vn/lac-chan-bac-dinh-da-sythentic-pnjsilver-ztmxw000001.html?gender=female&amp;category=lac-vong-tay_lac_lac-bac-pnjsilver_lac-chan-bac-pnjsilver</t>
-  </si>
-  <si>
-    <t>Lắc tay bạc đính đá PNJSilver My Feeling XMXMK000049</t>
   </si>
   <si>
     <t>https://www.pnj.com.vn/lac-tay-bac-pnjsilver-my-feeling-dinh-da-12909.100.html?gender=female&amp;category=lac-vong-tay_lac_lac-bac-pnjsilver</t>
@@ -2007,9 +1829,6 @@
     <t>https://www.pnj.com.vn/lac-tay-bac-y-pnjsilver-dinh-da-xmxmk060010.html?gender=female&amp;category=lac-vong-tay_lac_lac-bac-pnjsilver</t>
   </si>
   <si>
-    <t>Lắc tay bạc Ý đính đá PNJSilver XMXMK060010</t>
-  </si>
-  <si>
     <r>
       <t>8.785.000</t>
     </r>
@@ -2380,9 +2199,6 @@
     <t>https://www.pnj.com.vn/day-co-pnj-vang-18k-dinh-da-cz-ya81532.102.html</t>
   </si>
   <si>
-    <t>Dây cổ Vàng 18K đính đá CZ PNJ XMXMY000026</t>
-  </si>
-  <si>
     <r>
       <t>20.615.000</t>
     </r>
@@ -2412,9 +2228,6 @@
     <t>https://www.pnj.com.vn/day-co-pnj-sac-xuan-vang-trang-14k-dinh-da-topaz-95249.600.html</t>
   </si>
   <si>
-    <t>Dây cổ Vàng trắng 14K đính đá Topaz PNJ Sắc Xuân TPMXW000003</t>
-  </si>
-  <si>
     <r>
       <t>9.275.000</t>
     </r>
@@ -2444,9 +2257,6 @@
     <t>https://www.pnj.com.vn/day-co-pnj-sac-xuan-18k-vang-dinh-da-citrine-yb88479.600.html</t>
   </si>
   <si>
-    <t>Dây cổ Vàng 18K Vàng đính đá Citrine PNJ Sắc Xuân CTXMY000004</t>
-  </si>
-  <si>
     <t>GCCTXMY000004</t>
   </si>
   <si>
@@ -2476,9 +2286,6 @@
     <t>https://www.pnj.com.vn/day-co-pnj-phuong-hoang-vang-18k-dinh-da-ruby-81993.600.html</t>
   </si>
   <si>
-    <t>Dây cổ Vàng 18K đính đá Ruby PNJ Phượng Hoàng RBXMY000016</t>
-  </si>
-  <si>
     <r>
       <t>10.691.000</t>
     </r>
@@ -2508,9 +2315,6 @@
     <t>https://www.pnj.com.vn/day-co-pnj-vang-trang-14k-dinh-da-topaz-79812.600.html</t>
   </si>
   <si>
-    <t>Dây cổ Vàng trắng 14K đính đá Topaz PNJ TPXMW000005</t>
-  </si>
-  <si>
     <r>
       <t>68.528.000</t>
     </r>
@@ -2540,9 +2344,6 @@
     <t>https://www.pnj.com.vn/day-co-pnj-sac-xuan-vang-18k-dinh-da-citrine-yb88324.600.html</t>
   </si>
   <si>
-    <t>Dây cổ Vàng 18K Vàng đính đá Citrine PNJ Sắc Xuân CTXMY000003</t>
-  </si>
-  <si>
     <t>GCCTXMY000003</t>
   </si>
   <si>
@@ -2572,9 +2373,6 @@
     <t>https://www.pnj.com.vn/day-chuyen-pnj-vang-18k-8738.html</t>
   </si>
   <si>
-    <t>Dây chuyền Vàng 18K PNJ 0000Y000952</t>
-  </si>
-  <si>
     <t>GD0000Y000952</t>
   </si>
   <si>
@@ -2604,9 +2402,6 @@
     <t>https://www.pnj.com.vn/day-chuyen-vang-10k-6920.html</t>
   </si>
   <si>
-    <t>Dây chuyền Vàng trắng 10K PNJ kiểu dây đan lật đôi 0000W000221</t>
-  </si>
-  <si>
     <t>GD0000W000221</t>
   </si>
   <si>
@@ -2636,9 +2431,6 @@
     <t>https://www.pnj.com.vn/day-chuyen-pnj-vang-18k-8750.html</t>
   </si>
   <si>
-    <t>Dây chuyền Vàng 18K PNJ 0000Y000708</t>
-  </si>
-  <si>
     <t>GD0000Y000708</t>
   </si>
   <si>
@@ -2668,9 +2460,6 @@
     <t>https://www.pnj.com.vn/day-chuyen-vang-trang-18k-pnj-0000w060032.html</t>
   </si>
   <si>
-    <t>Dây chuyền Vàng trắng 18K PNJ 0000W060032</t>
-  </si>
-  <si>
     <t>GD0000W060032</t>
   </si>
   <si>
@@ -2700,9 +2489,6 @@
     <t>https://www.pnj.com.vn/day-co-vang-y-18k-pnj-0000h060001.html</t>
   </si>
   <si>
-    <t>Dây cổ Vàng Ý 18K PNJ 0000H060001</t>
-  </si>
-  <si>
     <r>
       <t>5.723.000</t>
     </r>
@@ -2843,9 +2629,6 @@
     <t>GD0000W000105</t>
   </si>
   <si>
-    <t>Dây chuyền Vàng trắng 10K PNJ dây đan kiểu chữ cong 0000W000105</t>
-  </si>
-  <si>
     <t>1.080.000 đ</t>
   </si>
   <si>
@@ -2855,9 +2638,6 @@
     <t>GD0000W000220</t>
   </si>
   <si>
-    <t>Dây chuyền Vàng trắng 10K PNJ 0000W000220</t>
-  </si>
-  <si>
     <t>1.322.000 đ</t>
   </si>
   <si>
@@ -2867,9 +2647,6 @@
     <t> GD0000W000177</t>
   </si>
   <si>
-    <t>Dây chuyền Vàng trắng 10K PNJ 0000W000177</t>
-  </si>
-  <si>
     <t>1.717.000 đ</t>
   </si>
   <si>
@@ -2879,9 +2656,6 @@
     <t>GD0000Y000711</t>
   </si>
   <si>
-    <t>Dây chuyền Vàng 18K PNJ kiểu dây đan dập chữ S xoắn suốt 0000Y000711</t>
-  </si>
-  <si>
     <t>2.341.000 đ</t>
   </si>
   <si>
@@ -2891,9 +2665,6 @@
     <t>GD0000W000277</t>
   </si>
   <si>
-    <t>Dây chuyền Vàng trắng Ý 18K PNJ 0000W000277</t>
-  </si>
-  <si>
     <t>2.175.000 đ</t>
   </si>
   <si>
@@ -2903,9 +2674,6 @@
     <t>GD0000Y000256</t>
   </si>
   <si>
-    <t>Dây chuyền Vàng 18K PNJ dây đan kiểu chữ cong 0000Y000256</t>
-  </si>
-  <si>
     <t>1.862.000 đ</t>
   </si>
   <si>
@@ -2915,9 +2683,6 @@
     <t>GCXMXMY000021</t>
   </si>
   <si>
-    <t>Dây cổ Vàng 18K đính đá CZ PNJ XMXMY000021</t>
-  </si>
-  <si>
     <t>6.713.000 đ</t>
   </si>
   <si>
@@ -2927,19 +2692,253 @@
     <t>GCXMXMY000019</t>
   </si>
   <si>
-    <t>Dây cổ Vàng 18K đính đá CZ PNJ XMXMY000019</t>
-  </si>
-  <si>
     <t>6.627.000 đ</t>
   </si>
   <si>
     <t>https://www.pnj.com.vn/day-co-pnj-vang-18k-dinh-da-cz-ya59993.102.html</t>
+  </si>
+  <si>
+    <t>Nhẫn nam bạc đính đá  XM00K000143</t>
+  </si>
+  <si>
+    <t>Nhẫn Vàng trắng 14K đính đá Topaz  TPXMW000002</t>
+  </si>
+  <si>
+    <t>Nhẫn cưới Vàng trắng 10K  0000W000041</t>
+  </si>
+  <si>
+    <t>Nhẫn bạc đính đá  Amazing Garden hình con bươm bướm XM00K000152</t>
+  </si>
+  <si>
+    <t>Nhẫn bạc đính đá  Wanderlust hình vuơng miện XMXMK000189</t>
+  </si>
+  <si>
+    <t>Nhẫn cưới Vàng 18K  Long Phụng 0000Y000355</t>
+  </si>
+  <si>
+    <t>Nhẫn nam bạc đính đá màu đỏ  ZT00A060000</t>
+  </si>
+  <si>
+    <t>Nhẫn nam bạc  Friendzone Breaker 0000K000074</t>
+  </si>
+  <si>
+    <t>Nhẫn cưới Kim cương Vàng 18K  Vàng Son DD00Y000633</t>
+  </si>
+  <si>
+    <t>Nhẫn cưới Kim cương Vàng 18K  DD00Y000962</t>
+  </si>
+  <si>
+    <t>Nhẫn cưới Kim cương Vàng trắng 14K  Chung Đôi DD00W000480</t>
+  </si>
+  <si>
+    <t>Nhẫn cưới nam Kim cương Vàng trắng 14K  Chung Đôi DD00W000360</t>
+  </si>
+  <si>
+    <t>Nhẫn cưới nam Kim cương Vàng trắng 14K  Chung Đôi DD00W000374</t>
+  </si>
+  <si>
+    <t>Nhẫn cưới Kim cương Vàng trắng 14K  Chung Đôi DD00W000477</t>
+  </si>
+  <si>
+    <t>Nhẫn cưới Kim cương Vàng trắng 14K  DD00W000450</t>
+  </si>
+  <si>
+    <t>Nhẫn Vàng trắng 14K đính ngọc trai Freshwater  PFXMW000041</t>
+  </si>
+  <si>
+    <t>Nhẫn Vàng 18K đính ngọc trai Freshwater  PFXMY000065</t>
+  </si>
+  <si>
+    <t>Nhẫn Vàng 18K đính ngọc trai Freshwater  PFXMY000100</t>
+  </si>
+  <si>
+    <t>Nhẫn Vàng 18K đính ngọc trai Freshwater  PFXMY000091</t>
+  </si>
+  <si>
+    <t>Nhẫn Vàng trắng 14K đính ngọc trai Freshwater  PFXMW000064</t>
+  </si>
+  <si>
+    <t>Bông tai Kim cương Vàng trắng 14K  DD00W000392</t>
+  </si>
+  <si>
+    <t>Bông tai Kim cương Vàng trắng 14K  DD00W000200</t>
+  </si>
+  <si>
+    <t>Bông tai Kim cương Vàng trắng 14K  First Diamond DDDDW000672</t>
+  </si>
+  <si>
+    <t>Bông tai Kim cương Vàng trắng 14K DD00W000360</t>
+  </si>
+  <si>
+    <t>Bông tai Kim cương Vàng trắng 14K DD00W000375</t>
+  </si>
+  <si>
+    <t>Bông tai Vàng 18K đính đá Ruby RBXMY000033</t>
+  </si>
+  <si>
+    <t>Bông tai vàng 14K đính đá Sapphire SPXMW000045</t>
+  </si>
+  <si>
+    <t>Bông tai cưới Vàng trắng 14K đính đá Topaz True Love TPXMW000169</t>
+  </si>
+  <si>
+    <t>Bông tai Vàng 18K đính đá Ruby Sắc Xuân RBXMY000260</t>
+  </si>
+  <si>
+    <t>Bông tai Vàng 14K đính đá Citrine Sắc Xuân CTXMY000140</t>
+  </si>
+  <si>
+    <t>Bông tai bạc đính ngọc trai 6 ly PF00K000011</t>
+  </si>
+  <si>
+    <t>Bông tai bạc đính ngọc trai My Feeling hình giọt nước PFXMK000033</t>
+  </si>
+  <si>
+    <t>Bông tai bạc đính ngọc trai PFXMK000013</t>
+  </si>
+  <si>
+    <t>Bông tai bạc Gem Melting NHXMW000001</t>
+  </si>
+  <si>
+    <t>Bông tai bạc Gem Melting NH00W000001</t>
+  </si>
+  <si>
+    <t>Bông tai Vàng 18K 0000Y000080</t>
+  </si>
+  <si>
+    <t>Bông tai cưới Vàng 24K 0000Y000113</t>
+  </si>
+  <si>
+    <t>Bông tai cưới Vàng 24K Mật Ngọt Hạnh Phúc 0000Y000086</t>
+  </si>
+  <si>
+    <t>Bông tai cưới Vàng 24K 0000Y000114</t>
+  </si>
+  <si>
+    <t>Bông tai Vàng trắng Ý 18K 0000W000918</t>
+  </si>
+  <si>
+    <t>Lắc tay bạc hình vỏ sò 0000K000033</t>
+  </si>
+  <si>
+    <t>Lắc tay bạc đính đá XM00K000022</t>
+  </si>
+  <si>
+    <t>Lắc tay trẻ em bạc Juice Me Up 0000K000073</t>
+  </si>
+  <si>
+    <t>Lắc tay bạc đính đá  Wanderlust XM00H000001</t>
+  </si>
+  <si>
+    <t>Lắc tay bạc đính đá XMXMK000015</t>
+  </si>
+  <si>
+    <t>Lắc tay bạc đính đá My Feeling XMXMK000044</t>
+  </si>
+  <si>
+    <t>Vòng tay trẻ em bạc 0000K000045</t>
+  </si>
+  <si>
+    <t>Vòng tay bạc Her Time 0000K000072</t>
+  </si>
+  <si>
+    <t>Lắc chân bạc đính đá màu đen XMZTK000002</t>
+  </si>
+  <si>
+    <t>Vòng tay bạc Gem Melting NH00W000001</t>
+  </si>
+  <si>
+    <t>Vòng tay bạc Frozen 0000C000005</t>
+  </si>
+  <si>
+    <t>Vòng tay bạc đính đá XMXMK000015</t>
+  </si>
+  <si>
+    <t>Vòng tay bạc Ximen 0000W000007</t>
+  </si>
+  <si>
+    <t>Vòng tay bạc Ximen 0000Y000021</t>
+  </si>
+  <si>
+    <t>Vòng tay bạc đính đá Minnie XMXMH000004</t>
+  </si>
+  <si>
+    <t>Vòng tay bạc đính đá Aura XMZTW000001</t>
+  </si>
+  <si>
+    <t>Lắc tay Bạc đính đá Beauty &amp; The Beast ZTZTC000001</t>
+  </si>
+  <si>
+    <t>Lắc chân Bạc đính đá Sythentic ZTMXW000001</t>
+  </si>
+  <si>
+    <t>Lắc tay bạc đính đá My Feeling XMXMK000049</t>
+  </si>
+  <si>
+    <t>Lắc tay bạc Ý đính đá XMXMK060010</t>
+  </si>
+  <si>
+    <t>Dây chuyền Vàng trắng 10K dây đan kiểu chữ cong 0000W000105</t>
+  </si>
+  <si>
+    <t>Dây chuyền Vàng trắng 10K 0000W000220</t>
+  </si>
+  <si>
+    <t>Dây chuyền Vàng trắng 10K 0000W000177</t>
+  </si>
+  <si>
+    <t>Dây chuyền Vàng 18K kiểu dây đan dập chữ S xoắn suốt 0000Y000711</t>
+  </si>
+  <si>
+    <t>Dây chuyền Vàng trắng Ý 18K 0000W000277</t>
+  </si>
+  <si>
+    <t>Dây chuyền Vàng 18K dây đan kiểu chữ cong 0000Y000256</t>
+  </si>
+  <si>
+    <t>Dây cổ Vàng 18K đính đá CZ XMXMY000021</t>
+  </si>
+  <si>
+    <t>Dây cổ Vàng 18K đính đá CZ XMXMY000019</t>
+  </si>
+  <si>
+    <t>Dây cổ Vàng 18K đính đá CZ XMXMY000026</t>
+  </si>
+  <si>
+    <t>Dây cổ Vàng trắng 14K đính đá Topaz Sắc Xuân TPMXW000003</t>
+  </si>
+  <si>
+    <t>Dây cổ Vàng 18K Vàng đính đá Citrine Sắc Xuân CTXMY000004</t>
+  </si>
+  <si>
+    <t>Dây cổ Vàng 18K đính đá Ruby Phượng Hoàng RBXMY000016</t>
+  </si>
+  <si>
+    <t>Dây cổ Vàng trắng 14K đính đá Topaz TPXMW000005</t>
+  </si>
+  <si>
+    <t>Dây cổ Vàng 18K Vàng đính đá Citrine Sắc Xuân CTXMY000003</t>
+  </si>
+  <si>
+    <t>Dây chuyền Vàng 18K 0000Y000952</t>
+  </si>
+  <si>
+    <t>Dây chuyền Vàng trắng 10K kiểu dây đan lật đôi 0000W000221</t>
+  </si>
+  <si>
+    <t>Dây chuyền Vàng 18K 0000Y000708</t>
+  </si>
+  <si>
+    <t>Dây chuyền Vàng trắng 18K 0000W060032</t>
+  </si>
+  <si>
+    <t>Dây cổ Vàng Ý 18K 0000H060001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3125,23 +3124,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3177,23 +3159,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3369,11 +3334,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="J138" sqref="J138"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3386,7 +3351,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3395,13 +3360,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -3412,16 +3377,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>324</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -3429,19 +3394,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -3449,19 +3414,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>326</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
@@ -3469,39 +3434,39 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="27.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>328</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -3509,19 +3474,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>329</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -3529,19 +3494,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>330</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -3549,19 +3514,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>331</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -3569,19 +3534,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>332</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -3589,39 +3554,39 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>333</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>334</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
@@ -3629,19 +3594,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>335</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
@@ -3649,39 +3614,39 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>336</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>337</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -3689,39 +3654,39 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>338</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>72</v>
+        <v>339</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -3729,19 +3694,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>76</v>
+        <v>340</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -3749,19 +3714,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -3769,39 +3734,39 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>84</v>
+        <v>342</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>88</v>
+        <v>343</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -3809,19 +3774,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>92</v>
+        <v>344</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -3829,39 +3794,39 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>96</v>
+        <v>345</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>100</v>
+        <v>346</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -3869,19 +3834,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>104</v>
+        <v>347</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -3889,19 +3854,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>108</v>
+        <v>348</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -3909,19 +3874,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>112</v>
+        <v>349</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -3929,19 +3894,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>116</v>
+        <v>350</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
@@ -3949,19 +3914,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>120</v>
+        <v>351</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -3969,19 +3934,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>124</v>
+        <v>352</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -3989,19 +3954,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>128</v>
+        <v>353</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4009,19 +3974,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>132</v>
+        <v>354</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
@@ -4029,19 +3994,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>136</v>
+        <v>355</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4049,19 +4014,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>141</v>
+        <v>356</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4069,19 +4034,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>144</v>
+        <v>357</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4089,19 +4054,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>148</v>
+        <v>358</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4109,19 +4074,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>152</v>
+        <v>359</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4129,19 +4094,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>156</v>
+        <v>360</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4149,19 +4114,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>160</v>
+        <v>361</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4169,19 +4134,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>164</v>
+        <v>362</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4189,19 +4154,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>168</v>
+        <v>363</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4209,19 +4174,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>171</v>
+        <v>364</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4229,19 +4194,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>177</v>
+        <v>365</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4249,19 +4214,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>181</v>
+        <v>366</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4269,19 +4234,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>186</v>
+        <v>367</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4289,19 +4254,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>188</v>
+        <v>368</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4309,19 +4274,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>194</v>
+        <v>369</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4329,19 +4294,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>198</v>
+        <v>370</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4349,19 +4314,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>201</v>
+        <v>371</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4369,19 +4334,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>203</v>
+        <v>372</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4389,19 +4354,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>210</v>
+        <v>373</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4409,19 +4374,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>213</v>
+        <v>374</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4429,19 +4394,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>217</v>
+        <v>375</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>215</v>
+        <v>164</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4449,19 +4414,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>219</v>
+        <v>376</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4469,19 +4434,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>226</v>
+        <v>377</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4489,19 +4454,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>230</v>
+        <v>378</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4509,39 +4474,39 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>233</v>
+        <v>379</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>236</v>
+        <v>180</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>237</v>
+        <v>380</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4549,19 +4514,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>241</v>
+        <v>381</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>242</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4569,19 +4534,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>243</v>
+        <v>382</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4589,19 +4554,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>253</v>
+        <v>383</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4609,19 +4574,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>247</v>
+        <v>188</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -4629,17 +4594,17 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>259</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4647,19 +4612,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>257</v>
+        <v>197</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>256</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4667,19 +4632,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
@@ -4687,19 +4652,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>267</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4707,19 +4672,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>273</v>
+        <v>213</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4727,19 +4692,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>277</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4747,19 +4712,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>281</v>
+        <v>221</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>279</v>
+        <v>219</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4767,19 +4732,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>283</v>
+        <v>223</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>282</v>
+        <v>222</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>285</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4787,19 +4752,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>286</v>
+        <v>226</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>289</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4807,19 +4772,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>334</v>
+        <v>263</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>335</v>
+        <v>264</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>336</v>
+        <v>265</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>337</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4827,19 +4792,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>338</v>
+        <v>267</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>339</v>
+        <v>268</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>340</v>
+        <v>269</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4847,19 +4812,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>341</v>
+        <v>270</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>247</v>
+        <v>188</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>342</v>
+        <v>271</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>343</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4867,19 +4832,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>344</v>
+        <v>273</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>345</v>
+        <v>274</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>342</v>
+        <v>271</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>346</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4887,19 +4852,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>347</v>
+        <v>276</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>348</v>
+        <v>277</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>342</v>
+        <v>271</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>349</v>
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
@@ -4907,19 +4872,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>350</v>
+        <v>279</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>351</v>
+        <v>280</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>352</v>
+        <v>281</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>353</v>
+        <v>282</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
@@ -4927,19 +4892,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>354</v>
+        <v>283</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>355</v>
+        <v>284</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>352</v>
+        <v>281</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>356</v>
+        <v>285</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4947,19 +4912,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>357</v>
+        <v>286</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>358</v>
+        <v>287</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>359</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4967,19 +4932,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>360</v>
+        <v>289</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>361</v>
+        <v>290</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>362</v>
+        <v>291</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>363</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4987,19 +4952,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>364</v>
+        <v>293</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>365</v>
+        <v>294</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>362</v>
+        <v>291</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>366</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -5007,39 +4972,39 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>367</v>
+        <v>296</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>368</v>
+        <v>297</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>369</v>
+        <v>298</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>371</v>
+        <v>300</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>373</v>
+        <v>301</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -5047,19 +5012,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>375</v>
+        <v>303</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>378</v>
+        <v>305</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -5067,19 +5032,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>379</v>
+        <v>306</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>381</v>
+        <v>307</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>382</v>
+        <v>308</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
@@ -5087,19 +5052,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>383</v>
+        <v>309</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>385</v>
+        <v>310</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>386</v>
+        <v>311</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -5107,19 +5072,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>387</v>
+        <v>312</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>388</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>389</v>
+        <v>313</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>390</v>
+        <v>314</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -5127,19 +5092,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>391</v>
+        <v>315</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>393</v>
+        <v>316</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>394</v>
+        <v>317</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -5147,19 +5112,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>395</v>
+        <v>318</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>397</v>
+        <v>319</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>398</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -5167,19 +5132,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>399</v>
+        <v>321</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>401</v>
+        <v>322</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>402</v>
+        <v>323</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -5187,19 +5152,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>293</v>
+        <v>232</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>291</v>
+        <v>392</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>292</v>
+        <v>231</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>290</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -5207,19 +5172,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>297</v>
+        <v>235</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>295</v>
+        <v>393</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>296</v>
+        <v>234</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>294</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -5227,19 +5192,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>299</v>
+        <v>394</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>298</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -5247,19 +5212,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>305</v>
+        <v>241</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>303</v>
+        <v>395</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>304</v>
+        <v>240</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -5267,19 +5232,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>309</v>
+        <v>244</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>307</v>
+        <v>396</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>308</v>
+        <v>243</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>306</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -5287,19 +5252,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>312</v>
+        <v>246</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>311</v>
+        <v>397</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>313</v>
+        <v>247</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>310</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -5307,39 +5272,39 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>316</v>
+        <v>249</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>315</v>
+        <v>398</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="27.6" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>320</v>
+        <v>252</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>319</v>
+        <v>399</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>321</v>
+        <v>253</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>318</v>
+        <v>251</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -5347,19 +5312,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>324</v>
+        <v>255</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>323</v>
+        <v>400</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>325</v>
+        <v>256</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>322</v>
+        <v>254</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -5367,19 +5332,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>328</v>
+        <v>258</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>327</v>
+        <v>401</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>326</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -5387,30 +5352,30 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>333</v>
+        <v>262</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>331</v>
+        <v>402</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>332</v>
+        <v>261</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>330</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F38" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F50" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F5" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F3" r:id="rId3"/>
+    <hyperlink ref="F4" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F38" r:id="rId6"/>
+    <hyperlink ref="F50" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>

--- a/CuaHangTrangSuc/productsInfo/products.xlsx
+++ b/CuaHangTrangSuc/productsInfo/products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="401">
   <si>
     <t>ID</t>
   </si>
@@ -1317,9 +1317,6 @@
       </rPr>
       <t>đ</t>
     </r>
-  </si>
-  <si>
-    <t>https://www.pnj.com.vn/lac-tay-bac-pnjsilver-wanderlust-dinh-da-91429.100.html?gender=female&amp;category=lac-vong-tay_lac_lac-bac-pnjsilver</t>
   </si>
   <si>
     <t>SLXM00H000001</t>
@@ -2650,18 +2647,12 @@
     <t>1.717.000 đ</t>
   </si>
   <si>
-    <t>https://www.pnj.com.vn/day-chuyen-vang-trang-10k-6813.html</t>
-  </si>
-  <si>
     <t>GD0000Y000711</t>
   </si>
   <si>
     <t>2.341.000 đ</t>
   </si>
   <si>
-    <t>https://www.pnj.com.vn/day-chuyen-vang-18k-6555.html?</t>
-  </si>
-  <si>
     <t>GD0000W000277</t>
   </si>
   <si>
@@ -2933,6 +2924,9 @@
   </si>
   <si>
     <t>Dây cổ Vàng Ý 18K 0000H060001</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -3027,7 +3021,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3337,8 +3331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3377,7 +3371,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>4</v>
@@ -3397,7 +3391,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
@@ -3417,7 +3411,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>14</v>
@@ -3437,7 +3431,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
@@ -3457,7 +3451,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>23</v>
@@ -3477,7 +3471,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>27</v>
@@ -3485,7 +3479,7 @@
       <c r="E7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3497,7 +3491,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>30</v>
@@ -3505,7 +3499,7 @@
       <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3517,7 +3511,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>33</v>
@@ -3525,7 +3519,7 @@
       <c r="E9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3537,7 +3531,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>36</v>
@@ -3545,7 +3539,7 @@
       <c r="E10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3557,7 +3551,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>39</v>
@@ -3565,7 +3559,7 @@
       <c r="E11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3577,7 +3571,7 @@
         <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>42</v>
@@ -3585,7 +3579,7 @@
       <c r="E12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3597,7 +3591,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>45</v>
@@ -3605,7 +3599,7 @@
       <c r="E13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3617,7 +3611,7 @@
         <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>48</v>
@@ -3625,7 +3619,7 @@
       <c r="E14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3637,7 +3631,7 @@
         <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>51</v>
@@ -3645,7 +3639,7 @@
       <c r="E15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3657,7 +3651,7 @@
         <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>54</v>
@@ -3665,7 +3659,7 @@
       <c r="E16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3677,7 +3671,7 @@
         <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>57</v>
@@ -3685,7 +3679,7 @@
       <c r="E17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3697,7 +3691,7 @@
         <v>59</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>60</v>
@@ -3705,7 +3699,7 @@
       <c r="E18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3717,7 +3711,7 @@
         <v>62</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>63</v>
@@ -3725,7 +3719,7 @@
       <c r="E19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3737,7 +3731,7 @@
         <v>65</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>66</v>
@@ -3745,7 +3739,7 @@
       <c r="E20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="7" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3757,7 +3751,7 @@
         <v>68</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>69</v>
@@ -3765,7 +3759,7 @@
       <c r="E21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3777,7 +3771,7 @@
         <v>71</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>72</v>
@@ -3785,7 +3779,7 @@
       <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="7" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3797,7 +3791,7 @@
         <v>74</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>75</v>
@@ -3805,7 +3799,7 @@
       <c r="E23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="7" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3817,7 +3811,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>78</v>
@@ -3825,7 +3819,7 @@
       <c r="E24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="7" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3837,7 +3831,7 @@
         <v>80</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>81</v>
@@ -3845,7 +3839,7 @@
       <c r="E25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="7" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3857,7 +3851,7 @@
         <v>83</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>84</v>
@@ -3865,7 +3859,7 @@
       <c r="E26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="7" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3877,7 +3871,7 @@
         <v>86</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>87</v>
@@ -3885,7 +3879,7 @@
       <c r="E27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="7" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3897,7 +3891,7 @@
         <v>89</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>90</v>
@@ -3905,7 +3899,7 @@
       <c r="E28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="7" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3917,7 +3911,7 @@
         <v>92</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>93</v>
@@ -3925,7 +3919,7 @@
       <c r="E29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="7" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3937,7 +3931,7 @@
         <v>95</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>96</v>
@@ -3945,7 +3939,7 @@
       <c r="E30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="7" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3957,7 +3951,7 @@
         <v>98</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>99</v>
@@ -3965,7 +3959,7 @@
       <c r="E31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="7" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3977,7 +3971,7 @@
         <v>101</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>102</v>
@@ -3985,7 +3979,7 @@
       <c r="E32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="7" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3997,7 +3991,7 @@
         <v>104</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>105</v>
@@ -4005,7 +3999,7 @@
       <c r="E33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="7" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4017,7 +4011,7 @@
         <v>108</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>109</v>
@@ -4025,7 +4019,7 @@
       <c r="E34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="7" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4037,7 +4031,7 @@
         <v>110</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>111</v>
@@ -4045,7 +4039,7 @@
       <c r="E35" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="7" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4057,7 +4051,7 @@
         <v>113</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>114</v>
@@ -4065,7 +4059,7 @@
       <c r="E36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4077,7 +4071,7 @@
         <v>116</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>117</v>
@@ -4085,7 +4079,7 @@
       <c r="E37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="7" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4097,7 +4091,7 @@
         <v>119</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>120</v>
@@ -4117,7 +4111,7 @@
         <v>122</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>123</v>
@@ -4125,7 +4119,7 @@
       <c r="E39" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="7" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4137,7 +4131,7 @@
         <v>125</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>126</v>
@@ -4145,7 +4139,7 @@
       <c r="E40" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="7" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4157,7 +4151,7 @@
         <v>128</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>129</v>
@@ -4165,7 +4159,7 @@
       <c r="E41" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="7" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4177,7 +4171,7 @@
         <v>133</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>131</v>
@@ -4185,7 +4179,7 @@
       <c r="E42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="7" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4197,7 +4191,7 @@
         <v>136</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>135</v>
@@ -4205,7 +4199,7 @@
       <c r="E43" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="7" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4217,7 +4211,7 @@
         <v>139</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>137</v>
@@ -4225,7 +4219,7 @@
       <c r="E44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="7" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4234,10 +4228,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>140</v>
@@ -4246,7 +4240,7 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>141</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4254,19 +4248,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F46" t="s">
-        <v>145</v>
+      <c r="F46" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4274,19 +4268,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F47" t="s">
-        <v>146</v>
+      <c r="F47" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4294,19 +4288,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F48" t="s">
-        <v>149</v>
+      <c r="F48" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4314,19 +4308,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F49" t="s">
-        <v>154</v>
+      <c r="F49" s="7" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4334,19 +4328,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4354,19 +4348,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F51" t="s">
-        <v>159</v>
+      <c r="F51" s="7" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4374,19 +4368,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F52" t="s">
-        <v>161</v>
+      <c r="F52" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4394,19 +4388,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F53" t="s">
-        <v>166</v>
+      <c r="F53" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4414,19 +4408,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F54" t="s">
-        <v>169</v>
+      <c r="F54" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4434,19 +4428,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F55" t="s">
-        <v>171</v>
+      <c r="F55" s="7" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4454,19 +4448,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F56" t="s">
-        <v>175</v>
+      <c r="F56" s="7" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4474,19 +4468,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F57" t="s">
-        <v>178</v>
+      <c r="F57" s="7" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4494,19 +4488,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F58" t="s">
-        <v>181</v>
+      <c r="F58" s="7" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4514,19 +4508,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F59" t="s">
-        <v>184</v>
+      <c r="F59" s="7" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4534,19 +4528,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F60" t="s">
-        <v>185</v>
+      <c r="F60" s="7" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4554,19 +4548,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F61" t="s">
-        <v>193</v>
+      <c r="F61" s="7" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4574,19 +4568,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -4594,17 +4588,17 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F63" t="s">
-        <v>199</v>
+      <c r="F63" s="7" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4612,19 +4606,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F64" t="s">
-        <v>196</v>
+      <c r="F64" s="7" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4632,19 +4626,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F65" t="s">
-        <v>202</v>
+      <c r="F65" s="7" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
@@ -4652,19 +4646,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="D66" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F66" t="s">
-        <v>207</v>
+      <c r="F66" s="7" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4672,19 +4666,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F67" t="s">
-        <v>210</v>
+      <c r="F67" s="7" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4692,19 +4686,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F68" t="s">
-        <v>217</v>
+      <c r="F68" s="7" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4712,19 +4706,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F69" t="s">
-        <v>220</v>
+      <c r="F69" s="7" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4732,19 +4726,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="D70" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F70" t="s">
-        <v>225</v>
+      <c r="F70" s="7" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4752,19 +4746,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="D71" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F71" t="s">
-        <v>229</v>
+      <c r="F71" s="7" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4772,19 +4766,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F72" t="s">
-        <v>266</v>
+      <c r="F72" s="7" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4792,19 +4786,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>268</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F73" t="s">
-        <v>269</v>
+      <c r="F73" s="7" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4812,19 +4806,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F74" t="s">
-        <v>272</v>
+      <c r="F74" s="7" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4832,19 +4826,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="D75" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F75" t="s">
-        <v>275</v>
+      <c r="F75" s="7" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4852,19 +4846,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="D76" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F76" t="s">
-        <v>278</v>
+      <c r="F76" s="7" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
@@ -4872,19 +4866,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F77" t="s">
-        <v>282</v>
+      <c r="F77" s="7" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
@@ -4892,19 +4886,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="D78" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F78" t="s">
-        <v>285</v>
+      <c r="F78" s="7" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4912,19 +4906,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>287</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F79" t="s">
-        <v>288</v>
+      <c r="F79" s="7" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4932,19 +4926,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>291</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F80" t="s">
-        <v>292</v>
+      <c r="F80" s="7" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4952,19 +4946,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="D81" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4972,19 +4966,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="D82" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>298</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4992,19 +4986,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F83" t="s">
-        <v>302</v>
+      <c r="F83" s="7" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -5012,19 +5006,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F84" t="s">
-        <v>305</v>
+      <c r="F84" s="7" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -5032,19 +5026,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F85" t="s">
-        <v>308</v>
+      <c r="F85" s="7" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
@@ -5052,19 +5046,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F86" t="s">
-        <v>311</v>
+      <c r="F86" s="7" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -5072,19 +5066,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F87" t="s">
-        <v>314</v>
+      <c r="F87" s="7" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -5092,19 +5086,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F88" t="s">
-        <v>317</v>
+      <c r="F88" s="7" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -5112,19 +5106,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F89" t="s">
-        <v>320</v>
+      <c r="F89" s="7" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -5132,19 +5126,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F90" t="s">
-        <v>323</v>
+      <c r="F90" s="7" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -5152,19 +5146,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F91" t="s">
-        <v>230</v>
+      <c r="F91" s="7" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -5172,19 +5166,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F92" t="s">
-        <v>233</v>
+      <c r="F92" s="7" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -5192,19 +5186,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="E93" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F93" t="s">
-        <v>236</v>
+      <c r="F93" s="7" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -5212,19 +5206,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F94" t="s">
-        <v>239</v>
+      <c r="F94" s="7" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -5232,19 +5226,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F95" t="s">
-        <v>242</v>
+      <c r="F95" s="7" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -5252,19 +5246,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F96" t="s">
-        <v>245</v>
+      <c r="F96" s="7" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -5272,19 +5266,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F97" t="s">
-        <v>248</v>
+      <c r="F97" s="7" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -5292,19 +5286,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F98" t="s">
-        <v>251</v>
+      <c r="F98" s="7" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -5312,19 +5306,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F99" t="s">
-        <v>254</v>
+      <c r="F99" s="7" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -5332,19 +5326,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F100" t="s">
-        <v>257</v>
+      <c r="F100" s="7" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -5352,19 +5346,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F101" t="s">
-        <v>260</v>
+      <c r="F101" s="7" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -5376,8 +5370,98 @@
     <hyperlink ref="F6" r:id="rId5"/>
     <hyperlink ref="F38" r:id="rId6"/>
     <hyperlink ref="F50" r:id="rId7"/>
+    <hyperlink ref="F7" r:id="rId8"/>
+    <hyperlink ref="F8" r:id="rId9"/>
+    <hyperlink ref="F9" r:id="rId10"/>
+    <hyperlink ref="F10" r:id="rId11"/>
+    <hyperlink ref="F11" r:id="rId12"/>
+    <hyperlink ref="F12" r:id="rId13"/>
+    <hyperlink ref="F13" r:id="rId14"/>
+    <hyperlink ref="F14" r:id="rId15"/>
+    <hyperlink ref="F15" r:id="rId16"/>
+    <hyperlink ref="F16" r:id="rId17"/>
+    <hyperlink ref="F17" r:id="rId18"/>
+    <hyperlink ref="F18" r:id="rId19"/>
+    <hyperlink ref="F19" r:id="rId20"/>
+    <hyperlink ref="F20" r:id="rId21"/>
+    <hyperlink ref="F21" r:id="rId22"/>
+    <hyperlink ref="F22" r:id="rId23"/>
+    <hyperlink ref="F23" r:id="rId24"/>
+    <hyperlink ref="F24" r:id="rId25"/>
+    <hyperlink ref="F25" r:id="rId26"/>
+    <hyperlink ref="F26" r:id="rId27"/>
+    <hyperlink ref="F27" r:id="rId28"/>
+    <hyperlink ref="F28" r:id="rId29"/>
+    <hyperlink ref="F29" r:id="rId30"/>
+    <hyperlink ref="F30" r:id="rId31"/>
+    <hyperlink ref="F31" r:id="rId32"/>
+    <hyperlink ref="F32" r:id="rId33"/>
+    <hyperlink ref="F33" r:id="rId34"/>
+    <hyperlink ref="F34" r:id="rId35"/>
+    <hyperlink ref="F35" r:id="rId36"/>
+    <hyperlink ref="F36" r:id="rId37"/>
+    <hyperlink ref="F37" r:id="rId38"/>
+    <hyperlink ref="F39" r:id="rId39"/>
+    <hyperlink ref="F40" r:id="rId40"/>
+    <hyperlink ref="F41" r:id="rId41"/>
+    <hyperlink ref="F42" r:id="rId42"/>
+    <hyperlink ref="F43" r:id="rId43"/>
+    <hyperlink ref="F44" r:id="rId44"/>
+    <hyperlink ref="F46" r:id="rId45"/>
+    <hyperlink ref="F47" r:id="rId46"/>
+    <hyperlink ref="F48" r:id="rId47"/>
+    <hyperlink ref="F49" r:id="rId48"/>
+    <hyperlink ref="F51" r:id="rId49"/>
+    <hyperlink ref="F52" r:id="rId50"/>
+    <hyperlink ref="F53" r:id="rId51"/>
+    <hyperlink ref="F54" r:id="rId52"/>
+    <hyperlink ref="F55" r:id="rId53"/>
+    <hyperlink ref="F56" r:id="rId54"/>
+    <hyperlink ref="F57" r:id="rId55"/>
+    <hyperlink ref="F58" r:id="rId56"/>
+    <hyperlink ref="F59" r:id="rId57"/>
+    <hyperlink ref="F61" r:id="rId58"/>
+    <hyperlink ref="F60" r:id="rId59"/>
+    <hyperlink ref="F62" r:id="rId60"/>
+    <hyperlink ref="F63" r:id="rId61"/>
+    <hyperlink ref="F64" r:id="rId62"/>
+    <hyperlink ref="F65" r:id="rId63"/>
+    <hyperlink ref="F66" r:id="rId64"/>
+    <hyperlink ref="F67" r:id="rId65"/>
+    <hyperlink ref="F68" r:id="rId66"/>
+    <hyperlink ref="F69" r:id="rId67"/>
+    <hyperlink ref="F70" r:id="rId68"/>
+    <hyperlink ref="F71" r:id="rId69"/>
+    <hyperlink ref="F72" r:id="rId70"/>
+    <hyperlink ref="F73" r:id="rId71"/>
+    <hyperlink ref="F74" r:id="rId72"/>
+    <hyperlink ref="F75" r:id="rId73"/>
+    <hyperlink ref="F76" r:id="rId74"/>
+    <hyperlink ref="F77" r:id="rId75"/>
+    <hyperlink ref="F78" r:id="rId76"/>
+    <hyperlink ref="F79" r:id="rId77"/>
+    <hyperlink ref="F80" r:id="rId78"/>
+    <hyperlink ref="F87" r:id="rId79"/>
+    <hyperlink ref="F88" r:id="rId80"/>
+    <hyperlink ref="F89" r:id="rId81"/>
+    <hyperlink ref="F90" r:id="rId82"/>
+    <hyperlink ref="F91" r:id="rId83"/>
+    <hyperlink ref="F92" r:id="rId84"/>
+    <hyperlink ref="F93" r:id="rId85"/>
+    <hyperlink ref="F94" r:id="rId86"/>
+    <hyperlink ref="F95" r:id="rId87"/>
+    <hyperlink ref="F96" r:id="rId88"/>
+    <hyperlink ref="F97" r:id="rId89"/>
+    <hyperlink ref="F98" r:id="rId90"/>
+    <hyperlink ref="F99" r:id="rId91"/>
+    <hyperlink ref="F100" r:id="rId92"/>
+    <hyperlink ref="F101" r:id="rId93"/>
+    <hyperlink ref="F83" r:id="rId94"/>
+    <hyperlink ref="F84" r:id="rId95"/>
+    <hyperlink ref="F85" r:id="rId96"/>
+    <hyperlink ref="F86" r:id="rId97" display="https://www.pnj.com.vn/day-chuyen-vang-18k-6555.html?"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId98"/>
 </worksheet>
 </file>
--- a/CuaHangTrangSuc/productsInfo/products.xlsx
+++ b/CuaHangTrangSuc/productsInfo/products.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView minimized="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3331,8 +3331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4957,7 +4957,7 @@
       <c r="E81" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="7" t="s">
         <v>294</v>
       </c>
     </row>
@@ -4977,7 +4977,7 @@
       <c r="E82" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="7" t="s">
         <v>298</v>
       </c>
     </row>
@@ -5460,8 +5460,10 @@
     <hyperlink ref="F84" r:id="rId95"/>
     <hyperlink ref="F85" r:id="rId96"/>
     <hyperlink ref="F86" r:id="rId97" display="https://www.pnj.com.vn/day-chuyen-vang-18k-6555.html?"/>
+    <hyperlink ref="F81" r:id="rId98"/>
+    <hyperlink ref="F82" r:id="rId99"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId98"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId100"/>
 </worksheet>
 </file>